--- a/CPSC_Assignment1/Graphs.xlsx
+++ b/CPSC_Assignment1/Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Garth\Documents\GitHub\CPSC319\CPSC_Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00CCC233-8652-43D3-8B66-C87136AE4FA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D547FC5-8556-4782-9E56-EC54C30430AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2AE70F6C-A4A6-4703-9F43-D8A3D913AE65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{2AE70F6C-A4A6-4703-9F43-D8A3D913AE65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3040,103 +3040,67 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$1:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="28"/>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet3!$N$1:$N$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet3!$N$1:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>n</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>15000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>30000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>45000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>60000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>75000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>90000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128</c:v>
+                  <c:v>105000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256</c:v>
+                  <c:v>120000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512</c:v>
+                  <c:v>135000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>524288</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2097152</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4194304</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8388608</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16777216</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>33554432</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>67108864</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>134217728</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>150000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$2:$B$28</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet3!$B$2:$B$28</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet3!$B$2:$B$12,Sheet3!$B$27)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>160</c:v>
                 </c:pt>
@@ -3171,52 +3135,7 @@
                   <c:v>9760</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>39780</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>79320</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>156660</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>862000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>794020</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1286120</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1998840</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1992080</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5693660</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11833260</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24280540</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>50715240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>153661380</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>149866260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>667771660</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3255,103 +3174,67 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$1:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="28"/>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet3!$N$1:$N$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet3!$N$1:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>n</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>15000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>30000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>45000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>60000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>75000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>90000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128</c:v>
+                  <c:v>105000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256</c:v>
+                  <c:v>120000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512</c:v>
+                  <c:v>135000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>524288</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2097152</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4194304</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8388608</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16777216</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>33554432</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>67108864</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>134217728</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>150000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$2:$C$28</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet3!$C$2:$C$28</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet3!$C$2:$C$12,Sheet3!$C$27)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -3386,52 +3269,7 @@
                   <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1480</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2880</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11260</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45120</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>89620</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>179280</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>358460</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>717740</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1493180</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3062740</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5986420</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12258520</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>23773140</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>47983040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3470,103 +3308,67 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$1:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="28"/>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet3!$N$1:$N$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet3!$N$1:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>n</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>15000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>30000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>45000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>60000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>75000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>90000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128</c:v>
+                  <c:v>105000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256</c:v>
+                  <c:v>120000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512</c:v>
+                  <c:v>135000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>524288</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2097152</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4194304</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8388608</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16777216</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>33554432</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>67108864</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>134217728</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>150000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$2:$D$28</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet3!$D$2:$D$28</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet3!$D$2:$D$12,Sheet3!$D$27)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>480</c:v>
                 </c:pt>
@@ -3601,52 +3403,7 @@
                   <c:v>6840</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6720</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8120</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13080</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15620</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12820</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4840</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8120</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9460</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8840</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9320</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9120</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>11320</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4988,6 +4745,1507 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alg.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11062314085739283"/>
+                  <c:y val="3.0344852726742533E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>134217728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9760</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39780</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79320</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>156660</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>862000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>794020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1286120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998840</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1992080</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5693660</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11833260</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24280540</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50715240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>153661380</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>149866260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>667771660</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8EC5-465E-83E6-F400503E4B15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="503407768"/>
+        <c:axId val="503406784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="503407768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503406784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="503406784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503407768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alg.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>134217728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11260</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>89620</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>179280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>358460</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>717740</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1493180</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3062740</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5986420</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12258520</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23773140</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47983040</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D42D-4D89-8A66-92C1C38CF50E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="452076512"/>
+        <c:axId val="452075856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="452076512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452075856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="452075856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452076512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alg.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>134217728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3820</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6840</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6720</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8120</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13080</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15620</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12820</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9460</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8840</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9320</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11320</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4EEB-4596-B8ED-F3B1D23D349A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="508580136"/>
+        <c:axId val="508576856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="508580136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508576856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="508576856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508580136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5188,6 +6446,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7749,6 +9127,1554 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7855,15 +10781,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
+      <xdr:colOff>157161</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7955,6 +10881,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DDF3B20-1346-4653-99A4-A91566C4A3FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FDC0A6A-4E53-4EA9-9FA4-D3356F019FC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFAD6FA6-D67C-422B-A8D8-E2FCC39FFC27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8262,7 +11296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80705630-7DEE-43B5-A0B1-597E99D95542}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -9605,18 +12639,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55150D24-D3E7-4B03-A995-75B0AE6576E6}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D1" activeCellId="1" sqref="A1:A28 D1:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9629,8 +12664,12 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
+      <c r="N1">
+        <f t="shared" ref="N1:N8" si="0">N2 - 15000000</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -9643,8 +12682,12 @@
       <c r="D2">
         <v>480</v>
       </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>15000000</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -9657,8 +12700,12 @@
       <c r="D3">
         <v>1380</v>
       </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>30000000</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -9671,8 +12718,12 @@
       <c r="D4">
         <v>1900</v>
       </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>45000000</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -9685,8 +12736,12 @@
       <c r="D5">
         <v>1980</v>
       </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>60000000</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32</v>
       </c>
@@ -9699,8 +12754,12 @@
       <c r="D6">
         <v>2500</v>
       </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>75000000</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>64</v>
       </c>
@@ -9713,8 +12772,12 @@
       <c r="D7">
         <v>4200</v>
       </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>90000000</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>A7*2</f>
         <v>128</v>
@@ -9728,10 +12791,14 @@
       <c r="D8">
         <v>3820</v>
       </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>105000000</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" ref="A9:A28" si="0">A8*2</f>
+        <f t="shared" ref="A9:A28" si="1">A8*2</f>
         <v>256</v>
       </c>
       <c r="B9">
@@ -9743,10 +12810,14 @@
       <c r="D9">
         <v>6100</v>
       </c>
+      <c r="N9">
+        <f>N10 - 15000000</f>
+        <v>120000000</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>512</v>
       </c>
       <c r="B10">
@@ -9758,10 +12829,14 @@
       <c r="D10">
         <v>5300</v>
       </c>
+      <c r="N10">
+        <f>N11 - 15000000</f>
+        <v>135000000</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1024</v>
       </c>
       <c r="B11">
@@ -9773,10 +12848,13 @@
       <c r="D11">
         <v>7160</v>
       </c>
+      <c r="N11">
+        <v>150000000</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2048</v>
       </c>
       <c r="B12">
@@ -9789,9 +12867,9 @@
         <v>6840</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4096</v>
       </c>
       <c r="B13">
@@ -9804,9 +12882,9 @@
         <v>6720</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8192</v>
       </c>
       <c r="B14">
@@ -9819,9 +12897,9 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16384</v>
       </c>
       <c r="B15">
@@ -9834,9 +12912,9 @@
         <v>8120</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32768</v>
       </c>
       <c r="B16">
@@ -9851,7 +12929,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65536</v>
       </c>
       <c r="B17">
@@ -9866,7 +12944,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>131072</v>
       </c>
       <c r="B18">
@@ -9881,7 +12959,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>262144</v>
       </c>
       <c r="B19">
@@ -9896,7 +12974,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>524288</v>
       </c>
       <c r="B20">
@@ -9911,7 +12989,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1048576</v>
       </c>
       <c r="B21">
@@ -9926,7 +13004,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2097152</v>
       </c>
       <c r="B22">
@@ -9941,7 +13019,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4194304</v>
       </c>
       <c r="B23">
@@ -9956,7 +13034,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8388608</v>
       </c>
       <c r="B24">
@@ -9971,7 +13049,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16777216</v>
       </c>
       <c r="B25">
@@ -9986,7 +13064,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33554432</v>
       </c>
       <c r="B26">
@@ -10001,7 +13079,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67108864</v>
       </c>
       <c r="B27">
@@ -10016,7 +13094,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>134217728</v>
       </c>
       <c r="B28">
